--- a/Student Profile/StudentProfile.xlsx
+++ b/Student Profile/StudentProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clfilho/Dropbox (Personal)/Rec-Auto/Python Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0104D14F-604C-C54E-A4C9-D7A6AC51F33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEFA378-EE7B-324A-80B8-64EA615287F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{8A1CF855-2C5B-F149-936A-A90AA29A5A87}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{8A1CF855-2C5B-F149-936A-A90AA29A5A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
   <si>
     <t>First Name:</t>
   </si>
@@ -52,9 +52,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>Type Custom Accomplishment Here</t>
-  </si>
-  <si>
     <t>Please Mark with X if the following Applies to the Student -&gt;</t>
   </si>
   <si>
@@ -203,12 +200,6 @@
   </si>
   <si>
     <t>Student on the year</t>
-  </si>
-  <si>
-    <t>Type custom Positive Trait here</t>
-  </si>
-  <si>
-    <t>Type custom Academic Skill here</t>
   </si>
   <si>
     <r>
@@ -253,22 +244,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">High School Year attended: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(e.g. Sophomore Year)</t>
-    </r>
-  </si>
-  <si>
     <t>Positive Personality Traits (Please select up to 6):</t>
   </si>
   <si>
@@ -297,29 +272,75 @@
     </r>
   </si>
   <si>
+    <t>he</t>
+  </si>
+  <si>
     <t>Purpose of the Letter:</t>
   </si>
   <si>
     <t>Summer Program</t>
   </si>
   <si>
-    <t>College Application</t>
-  </si>
-  <si>
-    <t>University Application</t>
-  </si>
-  <si>
     <t>Scholarship Program</t>
   </si>
   <si>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>Pranav</t>
+  </si>
+  <si>
+    <t>AP Environmental Science</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Please Mark with X which one applies -&gt;</t>
+  </si>
+  <si>
     <t>Other(type here)</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">High School Year attended: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(e.g. Sophomore)</t>
+    </r>
+  </si>
+  <si>
+    <t>2020/2021</t>
+  </si>
+  <si>
+    <t>Targetted Institution</t>
+  </si>
+  <si>
+    <t>James E. Roberts Engineering</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>University</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -346,6 +367,26 @@
       <i/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -386,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -398,6 +439,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -717,13 +763,14 @@
   <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.33203125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="33.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="40.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -734,94 +781,112 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
@@ -834,32 +899,34 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="3"/>
+      <c r="A23" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
@@ -867,323 +934,347 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="B33" s="9"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B34" s="9"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B35" s="9"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B36" s="9"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B37" s="9"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B38" s="9"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="B40" s="9"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="B42" s="9"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B43" s="9"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="B45" s="9"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B46" s="9"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="B47" s="9"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="B48" s="9"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="B49" s="9"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B50" s="9"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B51" s="9"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B52" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="B52" s="9"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="B53" s="9"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="B54" s="9"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="B55" s="9"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="B56" s="9"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="B57" s="9"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="B58" s="9"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="B59" s="9"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B60" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="B60" s="9"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="3"/>
+      <c r="A61" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="9"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B66" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="B66" s="9"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B67" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="B67" s="9"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B68" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B69" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="B69" s="9"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B70" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B71" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="B71" s="9"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B72" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B73" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="B73" s="9"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B74" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B75" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="B75" s="9"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B76" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B77" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="B77" s="9"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B78" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B79" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="B79" s="9"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B80" s="3"/>
+      <c r="A80" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
